--- a/dtpu_configurations/only_integer32/80mhz/mxu_10x10/power.xlsx
+++ b/dtpu_configurations/only_integer32/80mhz/mxu_10x10/power.xlsx
@@ -47,7 +47,7 @@
     <t>Total Power</t>
   </si>
   <si>
-    <t>impl_1, impl_1_route_report_power_0</t>
+    <t>retiming, retiming_route_report_power_0</t>
   </si>
 </sst>
 </file>
@@ -122,12 +122,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="41.71875" customWidth="true"/>
+    <col min="1" max="1" width="45.46875" customWidth="true"/>
     <col min="2" max="2" width="9.0625" customWidth="true"/>
     <col min="3" max="3" width="9.84375" customWidth="true"/>
     <col min="4" max="4" width="8.75" customWidth="true"/>
     <col min="5" max="5" width="8.75" customWidth="true"/>
-    <col min="6" max="6" width="10.3125" customWidth="true"/>
+    <col min="6" max="6" width="8.75" customWidth="true"/>
     <col min="7" max="7" width="8.75" customWidth="true"/>
     <col min="8" max="8" width="8.75" customWidth="true"/>
     <col min="9" max="9" width="8.75" customWidth="true"/>
@@ -175,22 +175,22 @@
         <v>11</v>
       </c>
       <c r="B2" t="n" s="4">
-        <v>0.03493626043200493</v>
+        <v>0.08177809417247772</v>
       </c>
       <c r="C2" t="n" s="4">
-        <v>0.015047300606966019</v>
+        <v>0.028338998556137085</v>
       </c>
       <c r="D2" t="n" s="4">
-        <v>0.011129637248814106</v>
+        <v>0.01577211543917656</v>
       </c>
       <c r="E2" t="n" s="4">
-        <v>0.008358133025467396</v>
+        <v>0.008419000543653965</v>
       </c>
       <c r="F2" t="n" s="4">
-        <v>4.774295666720718E-5</v>
+        <v>0.005910112056881189</v>
       </c>
       <c r="G2" t="n" s="4">
-        <v>0.0021374234929680824</v>
+        <v>0.002592177828773856</v>
       </c>
       <c r="H2" t="n" s="4">
         <v>0.0014924227725714445</v>
@@ -199,10 +199,10 @@
         <v>1.2604483366012573</v>
       </c>
       <c r="J2" t="n" s="4">
-        <v>0.1276429146528244</v>
+        <v>0.12822915613651276</v>
       </c>
       <c r="K2" t="n" s="4">
-        <v>1.4612503051757812</v>
+        <v>1.5329904556274414</v>
       </c>
     </row>
   </sheetData>
